--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_148.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_148.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32530-d6615543-Reviews-Courtyard_by_Marriott_Irvine_Spectrum-Irvine_California.html</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>287</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Courtyard-Irvine-Spectrum.h7985223.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_148.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_148.xlsx
@@ -4121,7 +4121,7 @@
         <v>62975</v>
       </c>
       <c r="B2" t="n">
-        <v>132265</v>
+        <v>163057</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -4182,7 +4182,7 @@
         <v>62975</v>
       </c>
       <c r="B3" t="n">
-        <v>132266</v>
+        <v>163058</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -4316,7 +4316,7 @@
         <v>62975</v>
       </c>
       <c r="B5" t="n">
-        <v>132267</v>
+        <v>163059</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -4383,7 +4383,7 @@
         <v>62975</v>
       </c>
       <c r="B6" t="n">
-        <v>132268</v>
+        <v>163060</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
@@ -4448,7 +4448,7 @@
         <v>62975</v>
       </c>
       <c r="B7" t="n">
-        <v>132269</v>
+        <v>132278</v>
       </c>
       <c r="C7" t="s">
         <v>86</v>
@@ -4515,7 +4515,7 @@
         <v>62975</v>
       </c>
       <c r="B8" t="n">
-        <v>132270</v>
+        <v>163061</v>
       </c>
       <c r="C8" t="s">
         <v>92</v>
@@ -4582,7 +4582,7 @@
         <v>62975</v>
       </c>
       <c r="B9" t="n">
-        <v>132271</v>
+        <v>163062</v>
       </c>
       <c r="C9" t="s">
         <v>99</v>
@@ -4649,7 +4649,7 @@
         <v>62975</v>
       </c>
       <c r="B10" t="n">
-        <v>132272</v>
+        <v>163063</v>
       </c>
       <c r="C10" t="s">
         <v>106</v>
@@ -4710,7 +4710,7 @@
         <v>62975</v>
       </c>
       <c r="B11" t="n">
-        <v>132273</v>
+        <v>163064</v>
       </c>
       <c r="C11" t="s">
         <v>112</v>
@@ -4777,7 +4777,7 @@
         <v>62975</v>
       </c>
       <c r="B12" t="n">
-        <v>132274</v>
+        <v>163065</v>
       </c>
       <c r="C12" t="s">
         <v>120</v>
@@ -4838,7 +4838,7 @@
         <v>62975</v>
       </c>
       <c r="B13" t="n">
-        <v>132275</v>
+        <v>163066</v>
       </c>
       <c r="C13" t="s">
         <v>126</v>
@@ -4903,7 +4903,7 @@
         <v>62975</v>
       </c>
       <c r="B14" t="n">
-        <v>132276</v>
+        <v>163067</v>
       </c>
       <c r="C14" t="s">
         <v>133</v>
@@ -4964,7 +4964,7 @@
         <v>62975</v>
       </c>
       <c r="B15" t="n">
-        <v>132277</v>
+        <v>163068</v>
       </c>
       <c r="C15" t="s">
         <v>142</v>
@@ -5346,7 +5346,7 @@
         <v>62975</v>
       </c>
       <c r="B21" t="n">
-        <v>132278</v>
+        <v>163069</v>
       </c>
       <c r="C21" t="s">
         <v>180</v>
@@ -5529,7 +5529,7 @@
         <v>62975</v>
       </c>
       <c r="B24" t="n">
-        <v>132279</v>
+        <v>163070</v>
       </c>
       <c r="C24" t="s">
         <v>201</v>
@@ -5777,7 +5777,7 @@
         <v>62975</v>
       </c>
       <c r="B28" t="n">
-        <v>132280</v>
+        <v>163071</v>
       </c>
       <c r="C28" t="s">
         <v>227</v>
@@ -5838,7 +5838,7 @@
         <v>62975</v>
       </c>
       <c r="B29" t="n">
-        <v>132281</v>
+        <v>163072</v>
       </c>
       <c r="C29" t="s">
         <v>233</v>
@@ -5903,7 +5903,7 @@
         <v>62975</v>
       </c>
       <c r="B30" t="n">
-        <v>132282</v>
+        <v>163073</v>
       </c>
       <c r="C30" t="s">
         <v>241</v>
@@ -5964,7 +5964,7 @@
         <v>62975</v>
       </c>
       <c r="B31" t="n">
-        <v>132283</v>
+        <v>163074</v>
       </c>
       <c r="C31" t="s">
         <v>247</v>
@@ -6147,7 +6147,7 @@
         <v>62975</v>
       </c>
       <c r="B34" t="n">
-        <v>132284</v>
+        <v>163075</v>
       </c>
       <c r="C34" t="s">
         <v>265</v>
@@ -6208,7 +6208,7 @@
         <v>62975</v>
       </c>
       <c r="B35" t="n">
-        <v>132285</v>
+        <v>163076</v>
       </c>
       <c r="C35" t="s">
         <v>271</v>
@@ -6340,7 +6340,7 @@
         <v>62975</v>
       </c>
       <c r="B37" t="n">
-        <v>132286</v>
+        <v>163077</v>
       </c>
       <c r="C37" t="s">
         <v>286</v>
@@ -6407,7 +6407,7 @@
         <v>62975</v>
       </c>
       <c r="B38" t="n">
-        <v>132287</v>
+        <v>163078</v>
       </c>
       <c r="C38" t="s">
         <v>293</v>
@@ -6468,7 +6468,7 @@
         <v>62975</v>
       </c>
       <c r="B39" t="n">
-        <v>132268</v>
+        <v>132278</v>
       </c>
       <c r="C39" t="s">
         <v>86</v>
@@ -6590,7 +6590,7 @@
         <v>62975</v>
       </c>
       <c r="B41" t="n">
-        <v>132288</v>
+        <v>163079</v>
       </c>
       <c r="C41" t="s">
         <v>310</v>
@@ -6651,7 +6651,7 @@
         <v>62975</v>
       </c>
       <c r="B42" t="n">
-        <v>132289</v>
+        <v>163080</v>
       </c>
       <c r="C42" t="s">
         <v>315</v>
@@ -6769,7 +6769,7 @@
         <v>62975</v>
       </c>
       <c r="B44" t="n">
-        <v>132290</v>
+        <v>163081</v>
       </c>
       <c r="C44" t="s">
         <v>327</v>
@@ -6836,7 +6836,7 @@
         <v>62975</v>
       </c>
       <c r="B45" t="n">
-        <v>132291</v>
+        <v>163082</v>
       </c>
       <c r="C45" t="s">
         <v>335</v>
@@ -7228,7 +7228,7 @@
         <v>62975</v>
       </c>
       <c r="B51" t="n">
-        <v>132292</v>
+        <v>163083</v>
       </c>
       <c r="C51" t="s">
         <v>383</v>
@@ -7295,7 +7295,7 @@
         <v>62975</v>
       </c>
       <c r="B52" t="n">
-        <v>132293</v>
+        <v>163084</v>
       </c>
       <c r="C52" t="s">
         <v>390</v>
@@ -7356,7 +7356,7 @@
         <v>62975</v>
       </c>
       <c r="B53" t="n">
-        <v>132294</v>
+        <v>163085</v>
       </c>
       <c r="C53" t="s">
         <v>396</v>
@@ -7549,7 +7549,7 @@
         <v>62975</v>
       </c>
       <c r="B56" t="n">
-        <v>132295</v>
+        <v>163086</v>
       </c>
       <c r="C56" t="s">
         <v>413</v>
@@ -7610,7 +7610,7 @@
         <v>62975</v>
       </c>
       <c r="B57" t="n">
-        <v>132296</v>
+        <v>163087</v>
       </c>
       <c r="C57" t="s">
         <v>419</v>
@@ -7677,7 +7677,7 @@
         <v>62975</v>
       </c>
       <c r="B58" t="n">
-        <v>132297</v>
+        <v>163088</v>
       </c>
       <c r="C58" t="s">
         <v>426</v>
@@ -7740,7 +7740,7 @@
         <v>62975</v>
       </c>
       <c r="B59" t="n">
-        <v>132298</v>
+        <v>163089</v>
       </c>
       <c r="C59" t="s">
         <v>433</v>
@@ -7933,7 +7933,7 @@
         <v>62975</v>
       </c>
       <c r="B62" t="n">
-        <v>132299</v>
+        <v>163090</v>
       </c>
       <c r="C62" t="s">
         <v>452</v>
@@ -7998,7 +7998,7 @@
         <v>62975</v>
       </c>
       <c r="B63" t="n">
-        <v>132300</v>
+        <v>163091</v>
       </c>
       <c r="C63" t="s">
         <v>458</v>
@@ -8065,7 +8065,7 @@
         <v>62975</v>
       </c>
       <c r="B64" t="n">
-        <v>132301</v>
+        <v>163092</v>
       </c>
       <c r="C64" t="s">
         <v>463</v>
@@ -8333,7 +8333,7 @@
         <v>62975</v>
       </c>
       <c r="B68" t="n">
-        <v>132302</v>
+        <v>163093</v>
       </c>
       <c r="C68" t="s">
         <v>489</v>
@@ -8522,7 +8522,7 @@
         <v>62975</v>
       </c>
       <c r="B71" t="n">
-        <v>132303</v>
+        <v>163094</v>
       </c>
       <c r="C71" t="s">
         <v>509</v>
@@ -8589,7 +8589,7 @@
         <v>62975</v>
       </c>
       <c r="B72" t="n">
-        <v>132304</v>
+        <v>163095</v>
       </c>
       <c r="C72" t="s">
         <v>516</v>
@@ -8790,7 +8790,7 @@
         <v>62975</v>
       </c>
       <c r="B75" t="n">
-        <v>132305</v>
+        <v>163096</v>
       </c>
       <c r="C75" t="s">
         <v>540</v>
@@ -8855,7 +8855,7 @@
         <v>62975</v>
       </c>
       <c r="B76" t="n">
-        <v>132306</v>
+        <v>163097</v>
       </c>
       <c r="C76" t="s">
         <v>547</v>
@@ -8983,7 +8983,7 @@
         <v>62975</v>
       </c>
       <c r="B78" t="n">
-        <v>132307</v>
+        <v>163098</v>
       </c>
       <c r="C78" t="s">
         <v>560</v>
@@ -9113,7 +9113,7 @@
         <v>62975</v>
       </c>
       <c r="B80" t="n">
-        <v>132308</v>
+        <v>163099</v>
       </c>
       <c r="C80" t="s">
         <v>576</v>
@@ -9180,7 +9180,7 @@
         <v>62975</v>
       </c>
       <c r="B81" t="n">
-        <v>132309</v>
+        <v>163100</v>
       </c>
       <c r="C81" t="s">
         <v>583</v>
@@ -9245,7 +9245,7 @@
         <v>62975</v>
       </c>
       <c r="B82" t="n">
-        <v>132310</v>
+        <v>163101</v>
       </c>
       <c r="C82" t="s">
         <v>590</v>
@@ -9377,7 +9377,7 @@
         <v>62975</v>
       </c>
       <c r="B84" t="n">
-        <v>132311</v>
+        <v>163102</v>
       </c>
       <c r="C84" t="s">
         <v>606</v>
@@ -9438,7 +9438,7 @@
         <v>62975</v>
       </c>
       <c r="B85" t="n">
-        <v>132312</v>
+        <v>163103</v>
       </c>
       <c r="C85" t="s">
         <v>613</v>
@@ -9631,7 +9631,7 @@
         <v>62975</v>
       </c>
       <c r="B88" t="n">
-        <v>132313</v>
+        <v>163104</v>
       </c>
       <c r="C88" t="s">
         <v>638</v>
@@ -9692,7 +9692,7 @@
         <v>62975</v>
       </c>
       <c r="B89" t="n">
-        <v>132314</v>
+        <v>163105</v>
       </c>
       <c r="C89" t="s">
         <v>644</v>
@@ -9759,7 +9759,7 @@
         <v>62975</v>
       </c>
       <c r="B90" t="n">
-        <v>132315</v>
+        <v>163106</v>
       </c>
       <c r="C90" t="s">
         <v>650</v>
@@ -10011,7 +10011,7 @@
         <v>62975</v>
       </c>
       <c r="B94" t="n">
-        <v>132316</v>
+        <v>163107</v>
       </c>
       <c r="C94" t="s">
         <v>676</v>
@@ -10137,7 +10137,7 @@
         <v>62975</v>
       </c>
       <c r="B96" t="n">
-        <v>132317</v>
+        <v>163108</v>
       </c>
       <c r="C96" t="s">
         <v>685</v>
@@ -10198,7 +10198,7 @@
         <v>62975</v>
       </c>
       <c r="B97" t="n">
-        <v>132318</v>
+        <v>163109</v>
       </c>
       <c r="C97" t="s">
         <v>692</v>
@@ -10393,7 +10393,7 @@
         <v>62975</v>
       </c>
       <c r="B100" t="n">
-        <v>132319</v>
+        <v>163110</v>
       </c>
       <c r="C100" t="s">
         <v>712</v>
@@ -10450,7 +10450,7 @@
         <v>62975</v>
       </c>
       <c r="B101" t="n">
-        <v>132320</v>
+        <v>163111</v>
       </c>
       <c r="C101" t="s">
         <v>717</v>
@@ -10578,7 +10578,7 @@
         <v>62975</v>
       </c>
       <c r="B103" t="n">
-        <v>132321</v>
+        <v>163112</v>
       </c>
       <c r="C103" t="s">
         <v>729</v>
@@ -10643,7 +10643,7 @@
         <v>62975</v>
       </c>
       <c r="B104" t="n">
-        <v>132322</v>
+        <v>163113</v>
       </c>
       <c r="C104" t="s">
         <v>738</v>
@@ -10710,7 +10710,7 @@
         <v>62975</v>
       </c>
       <c r="B105" t="n">
-        <v>132323</v>
+        <v>163114</v>
       </c>
       <c r="C105" t="s">
         <v>745</v>
@@ -10779,7 +10779,7 @@
         <v>62975</v>
       </c>
       <c r="B106" t="n">
-        <v>132324</v>
+        <v>163115</v>
       </c>
       <c r="C106" t="s">
         <v>755</v>
@@ -10850,7 +10850,7 @@
         <v>62975</v>
       </c>
       <c r="B107" t="n">
-        <v>132325</v>
+        <v>163116</v>
       </c>
       <c r="C107" t="s">
         <v>764</v>
@@ -10911,7 +10911,7 @@
         <v>62975</v>
       </c>
       <c r="B108" t="n">
-        <v>132326</v>
+        <v>163117</v>
       </c>
       <c r="C108" t="s">
         <v>770</v>
@@ -11043,7 +11043,7 @@
         <v>62975</v>
       </c>
       <c r="B110" t="n">
-        <v>132327</v>
+        <v>163118</v>
       </c>
       <c r="C110" t="s">
         <v>780</v>
@@ -11100,7 +11100,7 @@
         <v>62975</v>
       </c>
       <c r="B111" t="n">
-        <v>132328</v>
+        <v>163119</v>
       </c>
       <c r="C111" t="s">
         <v>786</v>
@@ -11226,7 +11226,7 @@
         <v>62975</v>
       </c>
       <c r="B113" t="n">
-        <v>132329</v>
+        <v>163120</v>
       </c>
       <c r="C113" t="s">
         <v>802</v>
@@ -11293,7 +11293,7 @@
         <v>62975</v>
       </c>
       <c r="B114" t="n">
-        <v>132330</v>
+        <v>163121</v>
       </c>
       <c r="C114" t="s">
         <v>809</v>
@@ -11354,7 +11354,7 @@
         <v>62975</v>
       </c>
       <c r="B115" t="n">
-        <v>132331</v>
+        <v>163122</v>
       </c>
       <c r="C115" t="s">
         <v>815</v>
@@ -11425,7 +11425,7 @@
         <v>62975</v>
       </c>
       <c r="B116" t="n">
-        <v>132332</v>
+        <v>163123</v>
       </c>
       <c r="C116" t="s">
         <v>821</v>
@@ -11557,7 +11557,7 @@
         <v>62975</v>
       </c>
       <c r="B118" t="n">
-        <v>132333</v>
+        <v>163124</v>
       </c>
       <c r="C118" t="s">
         <v>832</v>
@@ -11693,7 +11693,7 @@
         <v>62975</v>
       </c>
       <c r="B120" t="n">
-        <v>132334</v>
+        <v>163125</v>
       </c>
       <c r="C120" t="s">
         <v>849</v>
@@ -11754,7 +11754,7 @@
         <v>62975</v>
       </c>
       <c r="B121" t="n">
-        <v>132335</v>
+        <v>163126</v>
       </c>
       <c r="C121" t="s">
         <v>856</v>
@@ -11886,7 +11886,7 @@
         <v>62975</v>
       </c>
       <c r="B123" t="n">
-        <v>132336</v>
+        <v>163127</v>
       </c>
       <c r="C123" t="s">
         <v>869</v>
@@ -11953,7 +11953,7 @@
         <v>62975</v>
       </c>
       <c r="B124" t="n">
-        <v>132337</v>
+        <v>163128</v>
       </c>
       <c r="C124" t="s">
         <v>875</v>
@@ -12020,7 +12020,7 @@
         <v>62975</v>
       </c>
       <c r="B125" t="n">
-        <v>132338</v>
+        <v>163129</v>
       </c>
       <c r="C125" t="s">
         <v>882</v>
@@ -12087,7 +12087,7 @@
         <v>62975</v>
       </c>
       <c r="B126" t="n">
-        <v>132339</v>
+        <v>163130</v>
       </c>
       <c r="C126" t="s">
         <v>888</v>
@@ -12148,7 +12148,7 @@
         <v>62975</v>
       </c>
       <c r="B127" t="n">
-        <v>132340</v>
+        <v>163131</v>
       </c>
       <c r="C127" t="s">
         <v>895</v>
@@ -12219,7 +12219,7 @@
         <v>62975</v>
       </c>
       <c r="B128" t="n">
-        <v>132341</v>
+        <v>163132</v>
       </c>
       <c r="C128" t="s">
         <v>904</v>
@@ -12280,7 +12280,7 @@
         <v>62975</v>
       </c>
       <c r="B129" t="n">
-        <v>132342</v>
+        <v>163133</v>
       </c>
       <c r="C129" t="s">
         <v>910</v>
@@ -12347,7 +12347,7 @@
         <v>62975</v>
       </c>
       <c r="B130" t="n">
-        <v>132343</v>
+        <v>163134</v>
       </c>
       <c r="C130" t="s">
         <v>916</v>
@@ -12412,7 +12412,7 @@
         <v>62975</v>
       </c>
       <c r="B131" t="n">
-        <v>132344</v>
+        <v>163135</v>
       </c>
       <c r="C131" t="s">
         <v>923</v>
@@ -12479,7 +12479,7 @@
         <v>62975</v>
       </c>
       <c r="B132" t="n">
-        <v>132345</v>
+        <v>163136</v>
       </c>
       <c r="C132" t="s">
         <v>930</v>
@@ -12544,7 +12544,7 @@
         <v>62975</v>
       </c>
       <c r="B133" t="n">
-        <v>132346</v>
+        <v>163137</v>
       </c>
       <c r="C133" t="s">
         <v>937</v>
@@ -12735,7 +12735,7 @@
         <v>62975</v>
       </c>
       <c r="B136" t="n">
-        <v>132347</v>
+        <v>163138</v>
       </c>
       <c r="C136" t="s">
         <v>956</v>
@@ -12865,7 +12865,7 @@
         <v>62975</v>
       </c>
       <c r="B138" t="n">
-        <v>132348</v>
+        <v>163139</v>
       </c>
       <c r="C138" t="s">
         <v>969</v>
@@ -12926,7 +12926,7 @@
         <v>62975</v>
       </c>
       <c r="B139" t="n">
-        <v>132349</v>
+        <v>163140</v>
       </c>
       <c r="C139" t="s">
         <v>976</v>
@@ -13058,7 +13058,7 @@
         <v>62975</v>
       </c>
       <c r="B141" t="n">
-        <v>132350</v>
+        <v>163141</v>
       </c>
       <c r="C141" t="s">
         <v>989</v>
@@ -13196,7 +13196,7 @@
         <v>62975</v>
       </c>
       <c r="B143" t="n">
-        <v>132351</v>
+        <v>163142</v>
       </c>
       <c r="C143" t="s">
         <v>1005</v>
@@ -13399,7 +13399,7 @@
         <v>62975</v>
       </c>
       <c r="B146" t="n">
-        <v>132352</v>
+        <v>163143</v>
       </c>
       <c r="C146" t="s">
         <v>1028</v>
@@ -13521,7 +13521,7 @@
         <v>62975</v>
       </c>
       <c r="B148" t="n">
-        <v>132353</v>
+        <v>163144</v>
       </c>
       <c r="C148" t="s">
         <v>1040</v>
@@ -13588,7 +13588,7 @@
         <v>62975</v>
       </c>
       <c r="B149" t="n">
-        <v>132354</v>
+        <v>163145</v>
       </c>
       <c r="C149" t="s">
         <v>1047</v>
@@ -13724,7 +13724,7 @@
         <v>62975</v>
       </c>
       <c r="B151" t="n">
-        <v>132355</v>
+        <v>163146</v>
       </c>
       <c r="C151" t="s">
         <v>1063</v>
@@ -13793,7 +13793,7 @@
         <v>62975</v>
       </c>
       <c r="B152" t="n">
-        <v>132356</v>
+        <v>163147</v>
       </c>
       <c r="C152" t="s">
         <v>1072</v>
@@ -13994,7 +13994,7 @@
         <v>62975</v>
       </c>
       <c r="B155" t="n">
-        <v>132357</v>
+        <v>163148</v>
       </c>
       <c r="C155" t="s">
         <v>1091</v>
@@ -14051,7 +14051,7 @@
         <v>62975</v>
       </c>
       <c r="B156" t="n">
-        <v>132358</v>
+        <v>163149</v>
       </c>
       <c r="C156" t="s">
         <v>1097</v>
@@ -14311,7 +14311,7 @@
         <v>62975</v>
       </c>
       <c r="B160" t="n">
-        <v>132359</v>
+        <v>163150</v>
       </c>
       <c r="C160" t="s">
         <v>1127</v>
@@ -14376,7 +14376,7 @@
         <v>62975</v>
       </c>
       <c r="B161" t="n">
-        <v>132360</v>
+        <v>163151</v>
       </c>
       <c r="C161" t="s">
         <v>1134</v>
@@ -14443,7 +14443,7 @@
         <v>62975</v>
       </c>
       <c r="B162" t="n">
-        <v>132361</v>
+        <v>163152</v>
       </c>
       <c r="C162" t="s">
         <v>1140</v>
